--- a/Result/check3/2025-04-25.xlsx
+++ b/Result/check3/2025-04-25.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-8.55</t>
+          <t>-8.9</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3033</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-5.32</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21.01</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3229</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-2.88</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.07</t>
+          <t>30.33</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>16567</t>
+          <t>16865</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>138</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>38898</t>
+          <t>53873</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>15.58</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>30.07</t>
+          <t>30.33</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>31425</t>
+          <t>31978</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2092</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>155.28</t>
+          <t>157.97</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>68</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-5.57</t>
+          <t>-4.67</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>84</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>52766</t>
+          <t>18439</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-13.28</t>
+          <t>-4.56</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>37.36</t>
+          <t>37.68</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>3736</t>
+          <t>3768</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2669,22 +2669,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2366</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2784,37 +2784,37 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>19.5</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>19.80%</t>
+          <t>18.88%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>10.49%</t>
+          <t>11.00%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32255</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>24.75</t>
+          <t>22.02</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2911,17 +2911,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>-7.95</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>61.06</t>
+          <t>57.55</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>74.86</t>
+          <t>76.04</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1826</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -3153,17 +3153,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4679</t>
+          <t>1629</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-6.16</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>55.55</t>
+          <t>39.03</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>27.48</t>
+          <t>27.86</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -3652,12 +3652,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
@@ -3767,12 +3767,12 @@
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>41.86%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>22.28%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -4121,17 +4121,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-4.64</t>
+          <t>-3.95</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>-1.64</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>74.86</t>
+          <t>76.04</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>7743</t>
+          <t>7794</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -4313,17 +4313,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6005</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3233.591</t>
+          <t>138.359</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,27 +4333,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>33.4</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4363,67 +4363,67 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>18.04</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>6505</t>
+          <t>755</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>-0.68</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-2.41</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-2.85</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -4443,12 +4443,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4458,17 +4458,17 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>408998123.0</t>
+          <t>12610615.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>群益證</t>
+          <t>迅杰</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4478,57 +4478,57 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>46.84</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>67.23%</t>
+          <t>41.73%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>21.70%</t>
+          <t>1.99%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>157.97</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>58506</t>
+          <t>1845</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>經紀手續費41.57%、營業證券出售損益38.12%、利息收入22.27%、股利收入8.24%、借券3.53%、期貨佣金1.86%、發行認購(售)權證淨損益1.47%、股務代理0.99%、承銷業務0.75%、財富管理0.60%、透過其他綜合損益按公允價值0.44%、顧問0.14%、經理費0.05%、借貸手續費0.03% (2024年)</t>
+          <t>筆記型電腦相關應用IC及其他100.00% (2023年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>群益證-金融保險-上市</t>
+          <t>迅杰-半導體業-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>18.96</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 金融 - 證券業</t>
+          <t>** 半導體 - 輸出入介面IC</t>
         </is>
       </c>
     </row>
@@ -4555,17 +4555,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6592.893</t>
+          <t>10074.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>22.39</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>144.5</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4605,72 +4605,72 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>-4.33</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>11513</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-7.00</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-9.25</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4685,92 +4685,92 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>-150739974.0</t>
+          <t>2886144.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>創惟</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>19.68</t>
+          <t>41.1</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48.38%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.05%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>62.48</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>377560</t>
+          <t>12607</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>公平價值變動之金融資產與金50.47%、利息淨收益45.84%、手續費及佣金16.83%、保險業務8.02%、透過其他綜合損益按公允價值4.53%、其他利息以外淨收益0.45%、投資性不動產0.13%、採用覆蓋法重分類損益0.12%、資產減損迴轉利益(減損損失)0.05%、權益法投資收益-關聯和合營公0.02% (2024年)</t>
+          <t>積體電路(IC)晶片99.89%、其他0.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>合庫金-金融保險-上市</t>
+          <t>創惟-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>16.69</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4780,12 +4780,12 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 半導體 - 輸出入介面IC</t>
         </is>
       </c>
     </row>
@@ -4797,222 +4797,222 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>6005</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3233.591</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4092.0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-1.97</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>91.2</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>-6.05</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>521</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>13895</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-1.15</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>-1.08</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>-1.50</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>-399593.0</t>
+          <t>408998123.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>世界</t>
+          <t>群益證</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>19.59</t>
+          <t>11.93</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>30.10%</t>
+          <t>67.23%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>18.73%</t>
+          <t>21.70%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>62.48</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>160617</t>
+          <t>58289</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>晶圓94.66%、其他5.34% (2024年)</t>
+          <t>經紀手續費41.57%、營業證券出售損益38.12%、利息收入22.27%、股利收入8.24%、借券3.53%、期貨佣金1.86%、發行認購(售)權證淨損益1.47%、股務代理0.99%、承銷業務0.75%、財富管理0.60%、透過其他綜合損益按公允價值0.44%、顧問0.14%、經理費0.05%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>世界-半導體業-上櫃</t>
+          <t>群益證-金融保險-上市</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>35.77</t>
+          <t>19.47</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>** 半導體 - 晶圓製造</t>
+          <t>** 金融 - 證券業</t>
         </is>
       </c>
     </row>
@@ -5039,17 +5039,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12609.0</t>
+          <t>6592.893</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5059,17 +5059,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>29.25</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>23.75</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -5089,72 +5089,72 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-7.41</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>70</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>43106</t>
+          <t>6675</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-3.95</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -5169,92 +5169,92 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>1471466.0</t>
+          <t>-150739974.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>天鉞電</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>831.67</t>
+          <t>19.6</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>42.46%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>74.53</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>376038</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
+          <t>公平價值變動之金融資產與金50.47%、利息淨收益45.84%、手續費及佣金16.83%、保險業務8.02%、透過其他綜合損益按公允價值4.53%、其他利息以外淨收益0.45%、投資性不動產0.13%、採用覆蓋法重分類損益0.12%、資產減損迴轉利益(減損損失)0.05%、權益法投資收益-關聯和合營公0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>天鉞電-光電業-上櫃</t>
+          <t>合庫金-金融保險-上市</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5264,12 +5264,12 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -5281,17 +5281,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5201</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19326.0</t>
+          <t>12609.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5301,17 +5301,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>58.27</t>
+          <t>29.25</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5331,57 +5331,57 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>-7.41</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>145</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>28631</t>
+          <t>43106</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-8.07</t>
+          <t>-3.95</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -5391,12 +5391,12 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>126.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>82.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -5421,22 +5421,22 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>2211031.0</t>
+          <t>1471466.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>凱衛</t>
+          <t>天鉞電</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
@@ -5446,57 +5446,57 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>25.78</t>
+          <t>831.67</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>49.86%</t>
+          <t>42.46%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>11.96%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>27.47</t>
+          <t>74.53</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>軟硬體系統整合43.11%、勞務及維修35.15%、授權21.73% (2024年)</t>
+          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>凱衛-資訊服務業-上櫃</t>
+          <t>天鉞電-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>14.62</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -5523,17 +5523,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4960</t>
+          <t>5201</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1147.357</t>
+          <t>19326.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5543,17 +5543,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>58.27</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5573,172 +5573,172 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>28631</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-8.07</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>126.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>13494636.0</t>
+          <t>2211031.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>誠美材</t>
+          <t>凱衛</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25.78</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>1.98%</t>
+          <t>49.86%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>-10.97%</t>
+          <t>11.96%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>74.86</t>
+          <t>27.47</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>7547</t>
+          <t>1779</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>偏光板99.58%、其他0.42% (2024年)</t>
+          <t>軟硬體系統整合43.11%、勞務及維修35.15%、授權21.73% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>誠美材-光電業-上市</t>
+          <t>凱衛-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>15.58</t>
+          <t>14.62</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 平面顯示器 - 其他零組件</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
         </is>
       </c>
     </row>
@@ -5765,17 +5765,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>4960</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3930.0</t>
+          <t>1147.357</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5785,27 +5785,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>47.75</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5815,172 +5815,172 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-5.06</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-3.63</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>1085745.0</t>
+          <t>13494636.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>鑫聯大投控</t>
+          <t>誠美材</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>18.7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>-1.42%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>-12.33%</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>32.13</t>
+          <t>76.04</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>5707</t>
+          <t>7575</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
+          <t>偏光板99.58%、其他0.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
+          <t>誠美材-光電業-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
+          <t>** 平面顯示器 - 其他零組件</t>
         </is>
       </c>
     </row>
@@ -6007,17 +6007,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6741.0</t>
+          <t>3930.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -6027,27 +6027,27 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>47.75</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -6057,82 +6057,82 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-5.18</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-1.92</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-2.30</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-4.33</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>247.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -6142,27 +6142,27 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>1372163.0</t>
+          <t>1085745.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>友威科</t>
+          <t>鑫聯大投控</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -6172,57 +6172,57 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>18.7</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>40.63%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>12.78%</t>
+          <t>1.78%</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>29.04</t>
+          <t>32.13</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>5707</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>設備及售後服務85.48%、客戶委託代工(OEM)14.52% (2024年)</t>
+          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>友威科-其他電子業-上櫃</t>
+          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>其他電子業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>27.27</t>
+          <t>23.26</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
         </is>
       </c>
     </row>
@@ -6249,17 +6249,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>456.0</t>
+          <t>6741.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6269,27 +6269,27 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>-2.65</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>39.62</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>206.5</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -6299,112 +6299,112 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>24.91</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>707</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>-1.92</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>38.71</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-4.33</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>247.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>125125.0</t>
+          <t>1372163.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>大塚</t>
+          <t>友威科</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -6414,57 +6414,57 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>21.19</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>28.25%</t>
+          <t>40.63%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>12.35%</t>
+          <t>12.78%</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>27.47</t>
+          <t>29.04</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>4702</t>
+          <t>2668</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>軟體93.00%、勞務5.89%、其他1.12% (2024年)</t>
+          <t>設備及售後服務85.48%、客戶委託代工(OEM)14.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>大塚-資訊服務業-上櫃</t>
+          <t>友威科-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>其他電子業平</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>27.27</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -6491,17 +6491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>905.0</t>
+          <t>456.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6511,142 +6511,142 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>42.83</t>
+          <t>39.62</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>206.5</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2675.0</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>-8.74</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>675</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>49.60</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>-6.91</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>-32.59</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>-96.99</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>1866596.0</t>
+          <t>125125.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>大塚</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6656,57 +6656,57 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>12.21</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>98.48</t>
+          <t>21.19</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>28.25%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>57.29%</t>
+          <t>12.35%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>62.48</t>
+          <t>27.47</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>183676</t>
+          <t>4702</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>權利金收入68.55%、技術服務31.45% (2024年)</t>
+          <t>軟體93.00%、勞務5.89%、其他1.12% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>力旺-半導體業-上櫃</t>
+          <t>大塚-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>53.93</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 半導體 - IP設計/IC設計代工服務</t>
+          <t>** 軟體服務 - 系統整合服務</t>
         </is>
       </c>
     </row>
@@ -6733,17 +6733,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3528</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17104.286</t>
+          <t>905.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6753,17 +6753,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>33.27</t>
+          <t>42.83</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>2675.0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6783,172 +6783,172 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>-9.86</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>15565</t>
+          <t>805</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>49.60</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-3.27</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>-32.59</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-96.99</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>3080887793.0</t>
+          <t>1866596.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>安馳</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>20.58</t>
+          <t>97.48</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>1.51%</t>
+          <t>57.29%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>67.4</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>5704</t>
+          <t>181809</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
+          <t>權利金收入68.55%、技術服務31.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>安馳-電子通路業-上市</t>
+          <t>力旺-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>53.93</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 半導體 - IC通路</t>
+          <t>** 半導體 - IP設計/IC設計代工服務</t>
         </is>
       </c>
     </row>
@@ -6975,17 +6975,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3035.0</t>
+          <t>17104.286</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6995,17 +6995,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>33.27</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>69.1</t>
+          <t>81.6</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -7025,57 +7025,57 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>141</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>23039</t>
+          <t>29635</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-10.58</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -7085,112 +7085,112 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>98.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>422644.0</t>
+          <t>3080887793.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>42.34</t>
+          <t>21.95</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>1.51%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>74.53</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>6084</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 半導體 - IC通路</t>
         </is>
       </c>
     </row>
@@ -7217,17 +7217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3921.416</t>
+          <t>3035.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7237,17 +7237,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>69.1</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7267,72 +7267,72 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>47</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>6798</t>
+          <t>10142</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-7.37</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -7357,17 +7357,17 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>382738013.0</t>
+          <t>422644.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>奇偶</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
@@ -7377,52 +7377,52 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>38.95</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>47.63%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>15.71%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>74.86</t>
+          <t>75.74</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>4772</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>數位監控系統及其相關產品100.00% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>奇偶-光電業-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -7459,17 +7459,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3339</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1376.0</t>
+          <t>3921.416</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7479,17 +7479,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7509,57 +7509,57 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>15.02</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>2336</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -7569,12 +7569,12 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -7589,27 +7589,27 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>95239.0</t>
+          <t>382738013.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>泰谷</t>
+          <t>奇偶</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -7619,52 +7619,52 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>147.8</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>8.77%</t>
+          <t>47.63%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>-9.98%</t>
+          <t>15.71%</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>74.53</t>
+          <t>76.04</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>4780</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>晶粒(含加工)99.92%、晶片(含加工)0.08% (2024年)</t>
+          <t>數位監控系統及其相關產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>泰谷-光電業-上櫃</t>
+          <t>奇偶-光電業-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>13.96</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>** LED照明產業 - 光源/磊晶</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -7701,17 +7701,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2293.0</t>
+          <t>1376.0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7721,17 +7721,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>16.03</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>36.05</t>
+          <t>31.4</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7751,72 +7751,72 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-10.41</t>
+          <t>18.55</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>14307</t>
+          <t>1335</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-16.39</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -7831,27 +7831,27 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>129215.0</t>
+          <t>95239.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>泰谷</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -7871,42 +7871,42 @@
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>154.2</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>8.77%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>-9.98%</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>74.53</t>
+          <t>75.74</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>2566</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>晶粒(含加工)99.92%、晶片(含加工)0.08% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>泰谷-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>13.96</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** LED照明產業 - 光源/磊晶</t>
         </is>
       </c>
     </row>
@@ -7993,17 +7993,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8013,12 +8013,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-11.05</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>129.67</t>
+          <t>55.52</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
@@ -8133,12 +8133,12 @@
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>29.04</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>3033</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -8235,17 +8235,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-6.2</t>
+          <t>-3.48</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>532</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-5.23</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>22.28</t>
+          <t>22.86</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
@@ -8375,12 +8375,12 @@
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>27.47</t>
+          <t>27.96</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>10376</t>
+          <t>10649</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -8477,17 +8477,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>25.18</t>
+          <t>24.91</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
@@ -8617,12 +8617,12 @@
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>74.86</t>
+          <t>76.04</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>2147</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -8719,17 +8719,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>2855</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>15.93</t>
+          <t>16.14</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
@@ -8859,12 +8859,12 @@
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>129589</t>
+          <t>131265</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -8961,17 +8961,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>10.46</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>143</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>6512</t>
+          <t>7660</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -8981,12 +8981,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>24.53</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
@@ -9101,12 +9101,12 @@
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>96.15</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>200438</t>
+          <t>203928</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -9203,17 +9203,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
@@ -9343,12 +9343,12 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>35.65</t>
+          <t>35.75</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>269782</t>
+          <t>271341</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -9445,17 +9445,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>544</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>31.62</t>
+          <t>31.69</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
@@ -9585,12 +9585,12 @@
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>35.65</t>
+          <t>35.75</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>10478</t>
+          <t>10504</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -9692,12 +9692,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1,555</t>
+          <t>2,230</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>38567</t>
+          <t>25223</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.8</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -9879,17 +9879,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>2601</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>481.0</t>
+          <t>7327.389</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9909,17 +9909,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>23.41</t>
+          <t>10.26</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -9929,32 +9929,32 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>23.21</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>1686</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -9969,27 +9969,27 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -10009,12 +10009,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
@@ -10029,17 +10029,17 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>雅茗-KY</t>
+          <t>益航</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>貿易百貨</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
@@ -10049,52 +10049,52 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>55.82%</t>
+          <t>61.93%</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>-6.72%</t>
+          <t>-1.43%</t>
         </is>
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>35.75</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>5196</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>商品銷售42.97%、餐飲32.27%、品牌業務18.72%、其他6.04% (2024年)</t>
+          <t>海運32.66%、租賃21.79%、佣金(百貨-聯營)17.30%、勞務及其他17.21%、百貨-自營10.92%、融資租賃利息收入0.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>雅茗-KY-觀光事業-上櫃</t>
+          <t>益航-貿易百貨-上市</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="AS40" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="AV40" t="inlineStr">
         <is>
-          <t>** 食品 - 餐飲連鎖</t>
+          <t>** 交通運輸及航運 - 散裝航運** 貿易百貨 - 零售通路</t>
         </is>
       </c>
     </row>
@@ -10121,162 +10121,162 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2601</t>
+          <t>2471</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>48678.863</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>68.2</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>-8.43</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>1579</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>-3.18</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>7327.389</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>10.26</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>-0.64</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>1128</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>-0.30</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>-99.0</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>6511514898.0</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>益航</t>
+          <t>資通</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
@@ -10286,57 +10286,57 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.89</t>
         </is>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>61.93%</t>
+          <t>42.59%</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>-1.43%</t>
+          <t>23.24%</t>
         </is>
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>35.65</t>
+          <t>27.95</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>5155</t>
+          <t>2972</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>海運32.66%、租賃21.79%、佣金(百貨-聯營)17.30%、勞務及其他17.21%、百貨-自營10.92%、融資租賃利息收入0.11% (2024年)</t>
+          <t>勞務93.19%、商品銷售6.81% (2024年)</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>益航-貿易百貨-上市</t>
+          <t>資通-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS41" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>19.46</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 散裝航運** 貿易百貨 - 零售通路</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發** 金融科技 - 監理法遵** 人工智慧 - 系統整合** 雲端運算 - 系統整合** 資通訊安全 - 資料安全、端點安全防護** 大數據 - 系統整合、資料庫</t>
         </is>
       </c>
     </row>
@@ -10363,17 +10363,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2471</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>48678.863</t>
+          <t>38570.835</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -10383,27 +10383,27 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-10.16</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>30.09</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>68.2</t>
+          <t>72.8</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -10413,72 +10413,72 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>-6.9</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>105</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>18929</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-2.82</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>221.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -10493,27 +10493,27 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>6511514898.0</t>
+          <t>269333570.0</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>資通</t>
+          <t>華經</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -10528,47 +10528,47 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>19.16</t>
+          <t>81.25</t>
         </is>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>42.59%</t>
+          <t>11.44%</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>23.24%</t>
+          <t>4.66%</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>27.75</t>
+          <t>27.95</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>5457</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>勞務93.19%、商品銷售6.81% (2024年)</t>
+          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>資通-資訊服務業-上市</t>
+          <t>華經-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
@@ -10578,7 +10578,7 @@
       </c>
       <c r="AS42" t="inlineStr">
         <is>
-          <t>19.46</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發** 金融科技 - 監理法遵** 人工智慧 - 系統整合** 雲端運算 - 系統整合** 資通訊安全 - 資料安全、端點安全防護** 大數據 - 系統整合、資料庫</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
       </c>
     </row>
@@ -10605,17 +10605,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2468</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-1.95</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>38570.835</t>
+          <t>1284.854</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -10625,27 +10625,27 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-10.16</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>30.09</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>72.8</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -10655,112 +10655,112 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>50370</t>
+          <t>760</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-6.17</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>120.0</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>269333570.0</t>
+          <t>90400654.0</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>華經</t>
+          <t>國碩</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
@@ -10770,57 +10770,57 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>80.94</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>11.44%</t>
+          <t>-1.39%</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>4.66%</t>
+          <t>-33.29%</t>
         </is>
       </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>27.75</t>
+          <t>76.04</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>5436</t>
+          <t>4246</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
+          <t>導電漿85.53%、其他7.20%、電力3.87%、工程2.60%、太陽能矽輔料0.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>華經-資訊服務業-上市</t>
+          <t>國碩-光電業-上市</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AS43" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="AV43" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
+          <t>** 太陽能產業 - 太陽能發電設備/系統及系統工程、太陽能電廠</t>
         </is>
       </c>
     </row>
@@ -10847,17 +10847,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2362</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1463.651</t>
+          <t>1074.851</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -10867,27 +10867,27 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>67.9</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -10897,112 +10897,112 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-2.41</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-3.14</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>278222926.0</t>
+          <t>48768296.0</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>藍天</t>
+          <t>中華</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH44" t="inlineStr">
@@ -11012,57 +11012,57 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>12.54</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>15.76</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>19.60%</t>
+          <t>7.48%</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>8.66%</t>
+          <t>-1.97%</t>
         </is>
       </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>30096</t>
+          <t>40359</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>電腦產品88.36%、租賃9.18%、其他2.45%、百腦匯售樓0.01% (2024年)</t>
+          <t>成車79.53%、零件17.25%、勞務2.77%、其他0.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
-          <t>藍天-電腦及週邊設備業-上市</t>
+          <t>中華-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR44" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="AS44" t="inlineStr">
         <is>
-          <t>76.09</t>
+          <t>67.02</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr">
@@ -11077,7 +11077,7 @@
       </c>
       <c r="AV44" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
         </is>
       </c>
     </row>
@@ -11089,17 +11089,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1074.851</t>
+          <t>337.302</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -11109,27 +11109,27 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>-3.05</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>67.9</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -11139,77 +11139,77 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>1332</t>
+          <t>614</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>-2.41</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>-3.14</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -11219,32 +11219,32 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>48768296.0</t>
+          <t>14865702.0</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>中華</t>
+          <t>泰豐</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
@@ -11254,57 +11254,57 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>4.09%</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>-1.97%</t>
+          <t>-73.79%</t>
         </is>
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>18.93</t>
+          <t>19.3</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>40027</t>
+          <t>9467</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>成車79.53%、零件17.25%、勞務2.77%、其他0.45% (2024年)</t>
+          <t>輪胎96.38%、租賃3.62% (2024年)</t>
         </is>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>中華-汽車工業-上市</t>
+          <t>泰豐-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR45" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="AS45" t="inlineStr">
         <is>
-          <t>67.02</t>
+          <t>14.67</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="AV45" t="inlineStr">
         <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務、銷售、進出口業務</t>
+          <t>** 石化及塑橡膠 - 橡膠製品** 其他 - 其他** 汽車 - 輪胎</t>
         </is>
       </c>
     </row>
@@ -11331,17 +11331,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2102</t>
+          <t>1785</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>337.302</t>
+          <t>10392.0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -11351,27 +11351,27 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-3.05</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -11381,57 +11381,57 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>2262</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-2.19</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -11441,17 +11441,17 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -11461,92 +11461,92 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>14865702.0</t>
+          <t>-1383878.0</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>泰豐</t>
+          <t>光洋科</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>橡膠工業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>13.83</t>
         </is>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.04</t>
         </is>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
-          <t>4.09%</t>
+          <t>14.79%</t>
         </is>
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>-73.79%</t>
+          <t>10.18%</t>
         </is>
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>9514</t>
+          <t>31176</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
-          <t>輪胎96.38%、租賃3.62% (2024年)</t>
+          <t>貴金屬材料79.52%、非貴金屬及其他20.48% (2024年)</t>
         </is>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
-          <t>泰豐-橡膠工業-上市</t>
+          <t>光洋科-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR46" t="inlineStr">
         <is>
-          <t>橡膠工業平</t>
+          <t>其他電子業平</t>
         </is>
       </c>
       <c r="AS46" t="inlineStr">
         <is>
-          <t>14.67</t>
+          <t>24.63</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="AV46" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 橡膠製品** 其他 - 其他** 汽車 - 輪胎</t>
+          <t>** 半導體 - 化學品** 電腦及週邊設備 - 硬碟機** 平面顯示器 - 化學品(如光阻劑、靶材等)** 觸控面板 - ITO靶材** 被動元件 - 濾波器、振盪器材料(鉭酸鋰／鈮酸鋰晶圓／片、石英基板、金屬及陶瓷封裝材料)** 印刷電路板 - 生產製程及檢測設備** 其他 - 環保潔能服務產業** 汽車 - 其他** 太陽能產業 - 材料</t>
         </is>
       </c>
     </row>
@@ -11573,17 +11573,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1785</t>
+          <t>1477</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10392.0</t>
+          <t>1743.248</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -11593,27 +11593,27 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>22.63</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>282.0</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -11623,37 +11623,37 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-6.42</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>2535</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -11663,32 +11663,32 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>-17.01</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-20.66</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -11708,87 +11708,87 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>-1383878.0</t>
+          <t>1844446879.0</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>光洋科</t>
+          <t>聚陽</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40.23</t>
         </is>
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>15.33</t>
         </is>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27.80%</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.92%</t>
         </is>
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>29.04</t>
+          <t>60.64</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>30819</t>
+          <t>65374</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>貴金屬材料79.52%、非貴金屬及其他20.48% (2024年)</t>
+          <t>成衣銷售97.24%、其他2.76% (2024年)</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>光洋科-其他電子業-上櫃</t>
+          <t>聚陽-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
         <is>
-          <t>其他電子業平</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="AS47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54.68</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr">
@@ -11803,7 +11803,7 @@
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>** 半導體 - 化學品** 電腦及週邊設備 - 硬碟機** 平面顯示器 - 化學品(如光阻劑、靶材等)** 觸控面板 - ITO靶材** 被動元件 - 濾波器、振盪器材料(鉭酸鋰／鈮酸鋰晶圓／片、石英基板、金屬及陶瓷封裝材料)** 印刷電路板 - 生產製程及檢測設備** 其他 - 環保潔能服務產業** 汽車 - 其他** 太陽能產業 - 材料</t>
+          <t>** 紡織 - 成衣及其它家居紡織類品</t>
         </is>
       </c>
     </row>
@@ -11815,17 +11815,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1743.248</t>
+          <t>754.08</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -11835,27 +11835,27 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>-1.79</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>22.63</t>
+          <t>18.76</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>282.0</t>
+          <t>390.0</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -11865,37 +11865,37 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>-8.67</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>731</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -11905,32 +11905,32 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>-17.01</t>
+          <t>-26.45</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>-20.66</t>
+          <t>-31.85</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -11945,27 +11945,27 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>1844446879.0</t>
+          <t>425010921.0</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>聚陽</t>
+          <t>儒鴻</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
@@ -11980,47 +11980,47 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>40.23</t>
+          <t>34.88</t>
         </is>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>15.01</t>
+          <t>16.94</t>
         </is>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
-          <t>27.80%</t>
+          <t>29.85%</t>
         </is>
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>15.92%</t>
+          <t>19.54%</t>
         </is>
       </c>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>60.65</t>
+          <t>60.64</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>64017</t>
+          <t>112490</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
         <is>
-          <t>成衣銷售97.24%、其他2.76% (2024年)</t>
+          <t>成衣64.50%、針織布35.50% (2024年)</t>
         </is>
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
-          <t>聚陽-紡織纖維-上市</t>
+          <t>儒鴻-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AR48" t="inlineStr">
@@ -12030,7 +12030,7 @@
       </c>
       <c r="AS48" t="inlineStr">
         <is>
-          <t>54.68</t>
+          <t>105.41</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr">
@@ -12045,7 +12045,7 @@
       </c>
       <c r="AV48" t="inlineStr">
         <is>
-          <t>** 紡織 - 成衣及其它家居紡織類品</t>
+          <t>** 紡織 - 織布、成衣及其它家居紡織類品</t>
         </is>
       </c>
     </row>
@@ -12107,17 +12107,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>4185</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -12132,7 +12132,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -12192,7 +12192,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr">
@@ -12222,7 +12222,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="AJ49" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>14.71</t>
+          <t>14.64</t>
         </is>
       </c>
       <c r="AL49" t="inlineStr">
@@ -12247,12 +12247,12 @@
       </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>43.91</t>
+          <t>44.03</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>11250</t>
+          <t>11200</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -12354,12 +12354,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>807</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>9056</t>
+          <t>6986</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -12374,7 +12374,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>43.91</t>
+          <t>44.03</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
@@ -12591,17 +12591,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -12676,7 +12676,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD51" t="inlineStr">
@@ -12706,7 +12706,7 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="AJ51" t="inlineStr">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="AK51" t="inlineStr">
         <is>
-          <t>16.11</t>
+          <t>16.26</t>
         </is>
       </c>
       <c r="AL51" t="inlineStr">
@@ -12731,12 +12731,12 @@
       </c>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>43.91</t>
+          <t>44.03</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>31100</t>
+          <t>31395</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr">
@@ -12833,22 +12833,22 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>39</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>6181</t>
+          <t>3156</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -12858,7 +12858,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -12918,7 +12918,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="AD52" t="inlineStr">
@@ -12948,37 +12948,37 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr">
         <is>
-          <t>31.51</t>
+          <t>30.44</t>
         </is>
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>14.77</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>14.74%</t>
+          <t>15.39%</t>
         </is>
       </c>
       <c r="AM52" t="inlineStr">
         <is>
-          <t>5.74%</t>
+          <t>5.29%</t>
         </is>
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>43.91</t>
+          <t>44.03</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>56281</t>
+          <t>56102</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
@@ -12998,7 +12998,7 @@
       </c>
       <c r="AS52" t="inlineStr">
         <is>
-          <t>30.33</t>
+          <t>29.13</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr">

--- a/Result/check3/2025-04-25.xlsx
+++ b/Result/check3/2025-04-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS40"/>
+  <dimension ref="A1:AS35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9907</t>
+          <t>9937</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4178.838</t>
+          <t>13.131</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,92 +688,92 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>61.7</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>13.46</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>3,500</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>16183</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>154.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -783,32 +783,32 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>105830579.0</t>
+          <t>-1444914.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>統一實</t>
+          <t>全國</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>油電燃氣業</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -818,57 +818,57 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>18.76</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>26.71</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>16.02%</t>
+          <t>11.94%</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>8.32%</t>
+          <t>3.15%</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>32.45</t>
+          <t>28.52</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>32846</t>
+          <t>19315</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>馬口鐵包材產品53.33%、塑膠包材(含充填)產品46.67% (2024年)</t>
+          <t>無鉛汽油50.03%、超級柴油30.52%、無鉛汽油11.97%、無鉛汽油5.88%、勞務1.16%、其他0.44% (2024年)</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>統一實-其他-上市</t>
+          <t>全國-油電燃氣業-上市</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>18.97</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>** 鋼鐵 - 冷熱軋鋼板捲、金屬製品** 其他 - 其他</t>
+          <t>** 油電燃氣 - 加油站</t>
         </is>
       </c>
     </row>
@@ -895,17 +895,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8222</t>
+          <t>9907</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>62600.977</t>
+          <t>4178.838</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>47.56</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -935,72 +935,72 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>47</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>19509</t>
+          <t>11022</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1010,32 +1010,32 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>1220984757.0</t>
+          <t>105830579.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>寶一</t>
+          <t>統一實</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1045,57 +1045,57 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>48.82</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>22.33%</t>
+          <t>16.02%</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>10.70%</t>
+          <t>8.32%</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>33.86</t>
+          <t>31.8</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>32846</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>航太零組件100.00% (2024年)</t>
+          <t>馬口鐵包材產品53.33%、塑膠包材(含充填)產品46.67% (2024年)</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>寶一-電機機械-上市</t>
+          <t>統一實-其他-上市</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>** 電機機械 - 金屬加工處理</t>
+          <t>** 鋼鐵 - 冷熱軋鋼板捲、金屬製品** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -1122,17 +1122,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6834</t>
+          <t>8222</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3471.685</t>
+          <t>62600.977</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>31.54</t>
+          <t>47.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>34.15</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1162,107 +1162,107 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>14345</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>155530058.0</t>
+          <t>1220984757.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>天二科技</t>
+          <t>寶一</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1272,57 +1272,57 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>38.87</t>
+          <t>48.01</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>21.20%</t>
+          <t>22.33%</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>6.48%</t>
+          <t>10.70%</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>100.05</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3198</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>厚膜電阻40.49%、金屬板電阻31.67%、薄膜電阻27.33%、其他0.50% (2024年)</t>
+          <t>航太零組件100.00% (2024年)</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>天二科技-電子零組件業-上市</t>
+          <t>寶一-電機機械-上市</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>16.77</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>** 被動元件 - 電阻器</t>
+          <t>** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
@@ -1349,17 +1349,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6752</t>
+          <t>6834</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2901.0</t>
+          <t>3471.685</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>42.49</t>
+          <t>31.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>162.5</t>
+          <t>34.15</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1389,167 +1389,167 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2354</t>
+          <t>905</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-13.77</t>
+          <t>-4.96</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>139.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>930799.0</t>
+          <t>155530058.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>叡揚</t>
+          <t>天二科技</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>14.21</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>29.56</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>56.16%</t>
+          <t>21.20%</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>20.33%</t>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>57.79</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>6421</t>
+          <t>3119</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>技術服務94.97%、商品銷售5.03% (2024年)</t>
+          <t>厚膜電阻40.49%、金屬板電阻31.67%、薄膜電阻27.33%、其他0.50% (2024年)</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>叡揚-資訊服務業-上櫃</t>
+          <t>天二科技-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>35.36</t>
+          <t>16.77</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發** 人工智慧 - 系統整合、顧問諮詢、領域解決方案、智慧設備、機器學習、電腦視覺、自然語言處理、移動控制、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、電力設備、冷卻設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安營運管理服務、資安顧問服務</t>
+          <t>** 被動元件 - 電阻器</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6691</t>
+          <t>6752</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>338.259</t>
+          <t>2901.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>42.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>393.5</t>
+          <t>162.5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1616,72 +1616,72 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>2354</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-13.77</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-4.85</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-5.90</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1696,87 +1696,87 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>212558678.0</t>
+          <t>930799.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>洋基工程</t>
+          <t>叡揚</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>49.96</t>
+          <t>14.21</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>21.41</t>
+          <t>29.56</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>18.85%</t>
+          <t>56.16%</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>15.86%</t>
+          <t>20.33%</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>166.26</t>
+          <t>28.02</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>43836</t>
+          <t>6421</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>工程100.00% (2024年)</t>
+          <t>技術服務94.97%、商品銷售5.03% (2024年)</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>洋基工程-其他電子業-上市</t>
+          <t>叡揚-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>59.99</t>
+          <t>35.36</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1786,12 +1786,12 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發** 人工智慧 - 系統整合、顧問諮詢、領域解決方案、智慧設備、機器學習、電腦視覺、自然語言處理、移動控制、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、電力設備、冷卻設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安營運管理服務、資安顧問服務</t>
         </is>
       </c>
     </row>
@@ -1843,32 +1843,32 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>26.4</t>
+          <t>23.93</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3451</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1953,37 +1953,37 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>30.35%</t>
+          <t>50.52%</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>18.56%</t>
+          <t>37.23%</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>168.99</t>
+          <t>168.67</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>4693</t>
+          <t>4541</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2070,17 +2070,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>16.55</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>55.66</t>
+          <t>58.42</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>28.57</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>5003</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2297,17 +2297,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>27.01</t>
+          <t>33.6</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7685</t>
+          <t>10319</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2317,12 +2317,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>107.24</t>
+          <t>105.83</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>6319</t>
+          <t>6946</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
@@ -2524,22 +2524,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>752</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>-2.45</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2634,37 +2634,37 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>65.58</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>18.57</t>
+          <t>15.01</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>10.35%</t>
+          <t>11.02%</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>166.26</t>
+          <t>167.12</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>33418</t>
+          <t>32915</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>59.11</t>
+          <t>64.11</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>5356</t>
+          <t>2905</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>60.1</t>
+          <t>30.87</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2886,12 +2886,12 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>36.62</t>
+          <t>32.7</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>4704</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
@@ -2978,17 +2978,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>2270</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2998,12 +2998,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>-2.88</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -3113,12 +3113,12 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>166.26</t>
+          <t>167.12</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>56856</t>
+          <t>56623</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
@@ -3210,12 +3210,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>2669</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>80.41</t>
+          <t>78.09</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2413</t>
+          <t>2159</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>-2.07</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>13.12</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>58723</t>
+          <t>57638</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
@@ -3659,32 +3659,32 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>562</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-2.55</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -3769,37 +3769,37 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>10.66</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>18.76</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>14.01%</t>
+          <t>15.13%</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>6.11%</t>
+          <t>6.52%</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>126.17</t>
+          <t>127.88</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>5084</t>
+          <t>5035</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>22.41</t>
+          <t>23.5</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -3886,17 +3886,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-2.94</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>940</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3906,12 +3906,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-1.56</t>
+          <t>-3.61</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>16.38</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -4021,12 +4021,12 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>29.34</t>
+          <t>31.81</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>47523</t>
+          <t>46406</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
@@ -4118,27 +4118,27 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>1590</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4238,17 +4238,17 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>25.68%</t>
+          <t>-1.18%</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>15.34%</t>
+          <t>-196.63%</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>51.06</t>
+          <t>51.73</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
@@ -4340,17 +4340,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>26.51</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>5032</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>30.41</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -4475,12 +4475,12 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>33.1</t>
+          <t>34.06</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>2784</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5398</t>
+          <t>4961</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>640.649</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>17.8</t>
+          <t>205.5</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4567,77 +4567,77 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>701</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>-2.71</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-3.59</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>-5.43</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -4647,87 +4647,87 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>3596.0</t>
+          <t>385298475.0</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>慕康生醫</t>
+          <t>天鈺</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>-6.73%</t>
+          <t>29.31%</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>-54.54%</t>
+          <t>10.47%</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>96.55</t>
+          <t>153.13</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>26858</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>勞務57.56%、商品銷售42.44% (2024年)</t>
+          <t>顯示器驅動IC66.60%、其他22.07%、電源管理積體電路(IC)11.21%、勞務0.11% (2024年)</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>慕康生醫-其他-上櫃</t>
+          <t>天鈺-半導體業-上市</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>139.36</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>** 連接器 - 連接器設計、組裝及製造** 製藥 - 藥品代理銷售及通路** 醫療器材 - 醫療器材代理銷售及通路、醫療耗材、醫療器材代理、醫療院所、醫療器材專賣店、藥局等通路** 食品生技 - 保健食品代理銷售及通路</t>
+          <t>** 半導體 - LED驅動IC、電源管理IC、平面顯示器驅動IC</t>
         </is>
       </c>
     </row>
@@ -4754,17 +4754,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4961</t>
+          <t>4946</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>640.649</t>
+          <t>421.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4774,17 +4774,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>52.76</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>205.5</t>
+          <t>148.0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4794,32 +4794,32 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>27.09</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>508</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>14.88</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -4829,132 +4829,132 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-3.59</t>
+          <t>15.94</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-5.43</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>385298475.0</t>
+          <t>-58615.0</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>天鈺</t>
+          <t>辣椒</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>29.31%</t>
+          <t>20.94%</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>10.47%</t>
+          <t>-95.59%</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>151.92</t>
+          <t>168.67</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>27161</t>
+          <t>1586</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>顯示器驅動IC66.60%、其他22.07%、電源管理積體電路(IC)11.21%、勞務0.11% (2024年)</t>
+          <t>遊戲營運66.66%、商品銷售14.24%、餐飲13.84%、其他5.26% (2024年)</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>天鈺-半導體業-上市</t>
+          <t>辣椒-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>139.36</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>** 半導體 - LED驅動IC、電源管理IC、平面顯示器驅動IC</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 營運發行</t>
         </is>
       </c>
     </row>
@@ -5021,17 +5021,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-6.35</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-7.76</t>
+          <t>-4.29</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>19.61</t>
+          <t>18.48</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>33.1</t>
+          <t>34.06</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>5638</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
@@ -5248,17 +5248,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>3571</t>
+          <t>4875</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>16.06</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -5383,12 +5383,12 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>116526</t>
+          <t>116191</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
@@ -5480,12 +5480,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2061</t>
+          <t>2756</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>-2.45</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>166.26</t>
+          <t>167.12</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -5702,17 +5702,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23.33</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>74</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>7722</t>
+          <t>13241</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5722,12 +5722,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-7.08</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>21.66</t>
+          <t>23.19</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
@@ -5837,12 +5837,12 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>168.99</t>
+          <t>168.67</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>6374</t>
+          <t>6825</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
@@ -5889,17 +5889,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>-2.25</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3921.416</t>
+          <t>17144.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5909,17 +5909,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>24.29</t>
+          <t>28.74</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5929,72 +5929,72 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-9.18</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>134</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>22096</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>-5.98</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -6004,92 +6004,92 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>382738013.0</t>
+          <t>393223.0</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>奇偶</t>
+          <t>欣銓</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>17.86</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>47.63%</t>
+          <t>35.12%</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>15.71%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>79.23</t>
+          <t>53.61</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>4269</t>
+          <t>38527</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>數位監控系統及其相關產品100.00% (2024年)</t>
+          <t>晶圓測試69.93%、成品測試29.55%、其他0.52% (2024年)</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>奇偶-光電業-上市</t>
+          <t>欣銓-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>40.1</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 半導體 - IC封裝測試</t>
         </is>
       </c>
     </row>
@@ -6116,17 +6116,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-2.25</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17144.0</t>
+          <t>548.926</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6136,17 +6136,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>28.74</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>129.0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6156,167 +6156,167 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10.85</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>22585</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>393223.0</t>
+          <t>202440669.0</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>欣銓</t>
+          <t>雄獅</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>觀光事業</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>76.61</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>18.43</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>35.12%</t>
+          <t>17.81%</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>52.03</t>
+          <t>127.88</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>39753</t>
+          <t>13572</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>晶圓測試69.93%、成品測試29.55%、其他0.52% (2024年)</t>
+          <t>團費94.94%、其他3.55%、FIT1.51% (2024年)</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>欣銓-半導體業-上櫃</t>
+          <t>雄獅-觀光事業-上市</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>** 半導體 - IC封裝測試</t>
+          <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
       </c>
     </row>
@@ -6343,17 +6343,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>2480</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1589.0</t>
+          <t>1262.194</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6363,17 +6363,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>23.72</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>282.5</t>
+          <t>145.5</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6383,57 +6383,57 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-12.1</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>618</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>-1.97</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>18.56</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -6443,42 +6443,42 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>5191407.0</t>
+          <t>387137461.0</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>大綜</t>
+          <t>敦陽科</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -6488,52 +6488,52 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>80.72</t>
+          <t>19.44</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>18.74</t>
+          <t>21.06</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>9.71%</t>
+          <t>25.07%</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>5.28%</t>
+          <t>12.72%</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>27.49</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>9830</t>
+          <t>17496</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>商品銷售89.73%、服務合約6.40%、建造合同3.87% (2024年)</t>
+          <t>電腦主機及週邊設備68.13%、勞務31.76%、其他0.11% (2024年)</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>大綜-資訊服務業-上櫃</t>
+          <t>敦陽科-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>38.41</t>
+          <t>27.15</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 伺服器、其他電腦及週邊設備之零組件** 軟體服務 - 系統整合服務、通路經銷</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 區塊鏈 - 交易平台、商業應用** 金融科技 - 數據分析、資料聚合、數位身分** 人工智慧 - 系統整合、顧問諮詢、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安顧問服務** 大數據 - 系統整合、顧問諮詢、資料庫、分析工具、應用軟體、運算元件與設備、雲端平台、儲存處理</t>
         </is>
       </c>
     </row>
@@ -6570,17 +6570,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>2474</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4896.978</t>
+          <t>3050.071</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6590,127 +6590,127 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>27.03</t>
+          <t>15.37</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>3687</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>-1.13</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>38.8</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>-2.92</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2790</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>-0.66</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>574688481.0</t>
+          <t>1364915072.0</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>富華新</t>
+          <t>可成</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
@@ -6720,57 +6720,57 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>14.59</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>23.19%</t>
+          <t>35.02%</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>20.35%</t>
+          <t>19.85%</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>51.06</t>
+          <t>167.12</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>13420</t>
+          <t>150360</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>房地產96.94%、工程2.10%、餐飲0.61%、租賃0.17%、其他營業收入0.17% (2024年)</t>
+          <t>機殼及內構件99.82%、租賃0.16%、勞務0.02% (2024年)</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>富華新-建材營造-上市</t>
+          <t>可成-其他電子業-上市</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>257.57</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 電腦及週邊設備 - 機殼</t>
         </is>
       </c>
     </row>
@@ -6797,17 +6797,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2731</t>
+          <t>2425</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>548.926</t>
+          <t>1206.178</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -6817,17 +6817,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>129.0</t>
+          <t>36.15</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6837,107 +6837,107 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>77</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>17419</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>-4.86</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>202440669.0</t>
+          <t>257388180.0</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>雄獅</t>
+          <t>承啟</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
@@ -6947,57 +6947,57 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>76.61</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>37.62</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>17.81%</t>
+          <t>6.66%</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>6.50%</t>
+          <t>-1.54%</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>126.17</t>
+          <t>57.65</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>13712</t>
+          <t>3812</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>團費94.94%、其他3.55%、FIT1.51% (2024年)</t>
+          <t>消費性產品51.06%、AI伺服器及商品47.23%、服務收入1.49%、勞務0.21% (2024年)</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>雄獅-觀光事業-上市</t>
+          <t>承啟-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>** 休閒娛樂 - 旅遊服務業</t>
+          <t>** 電腦及週邊設備 - 主機板、顯示卡、伺服器、其他電腦及週邊設備</t>
         </is>
       </c>
     </row>
@@ -7024,17 +7024,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2414</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1262.194</t>
+          <t>130.609</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7044,17 +7044,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>23.72</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>145.5</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7064,72 +7064,72 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>780</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>-4.50</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-3.55</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -7139,32 +7139,32 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>387137461.0</t>
+          <t>6865818.0</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>敦陽科</t>
+          <t>精技</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
@@ -7174,57 +7174,57 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>39.13</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>20.68</t>
+          <t>14.04</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>25.07%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>12.72%</t>
+          <t>2.68%</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>27.83</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>17177</t>
+          <t>6631</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>電腦主機及週邊設備68.13%、勞務31.76%、其他0.11% (2024年)</t>
+          <t>商品銷售98.80%、勞務1.20% (2024年)</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>敦陽科-資訊服務業-上市</t>
+          <t>精技-電子通路業-上市</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 區塊鏈 - 交易平台、商業應用** 金融科技 - 數據分析、資料聚合、數位身分** 人工智慧 - 系統整合、顧問諮詢、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安顧問服務** 大數據 - 系統整合、顧問諮詢、資料庫、分析工具、應用軟體、運算元件與設備、雲端平台、儲存處理</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -7251,17 +7251,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2474</t>
+          <t>2360</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3050.071</t>
+          <t>1619.158</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7271,17 +7271,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>15.37</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>216.0</t>
+          <t>287.0</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7291,62 +7291,62 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>459</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>3463</t>
+          <t>2065</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>-9.22</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-14.04</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -7356,37 +7356,37 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>1364915072.0</t>
+          <t>2073145280.0</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>可成</t>
+          <t>致茂</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -7401,47 +7401,47 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>14.25</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>21.31</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>35.02%</t>
+          <t>59.73%</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>19.85%</t>
+          <t>25.82%</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>166.26</t>
+          <t>167.12</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>149340</t>
+          <t>137592</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>機殼及內構件99.82%、租賃0.16%、勞務0.02% (2024年)</t>
+          <t>商品銷售94.51%、工程4.04%、其他1.45% (2024年)</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>可成-其他電子業-上市</t>
+          <t>致茂-其他電子業-上市</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>257.57</t>
+          <t>58.72</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 機殼</t>
+          <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 電腦及週邊設備 - 電源供應器** 平面顯示器 - 生產製程及檢測設備** 軟體服務 - 系統整合服務** 其他 - 其他電子產品及電子服務產業** LED照明產業 - 生產製程、檢測設備及原物料** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 能源元件 - 電池芯、電池模組** 智慧電網 - 高/低壓輸電設施、配電管理設施</t>
         </is>
       </c>
     </row>
@@ -7478,17 +7478,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2471</t>
+          <t>2347</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>48678.863</t>
+          <t>4861.494</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7498,17 +7498,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>68.2</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7518,107 +7518,107 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-7.91</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>768</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>79.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>6511514898.0</t>
+          <t>808729624.0</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>資通</t>
+          <t>聯強</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
@@ -7628,57 +7628,57 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>18.48</t>
+          <t>13.58</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>30.71%</t>
+          <t>4.37%</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>0.45%</t>
+          <t>2.06%</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>27.83</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>2986</t>
+          <t>120092</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>勞務93.19%、商品銷售6.81% (2024年)</t>
+          <t>商品銷售99.34%、勞務0.66% (2024年)</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>資通-資訊服務業-上市</t>
+          <t>聯強-電子通路業-上市</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>19.76</t>
+          <t>44.28</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發** 金融科技 - 監理法遵** 人工智慧 - 系統整合** 雲端運算 - 系統整合** 資通訊安全 - 資料安全、端點安全防護** 大數據 - 系統整合、資料庫</t>
+          <t>** 半導體 - IC通路</t>
         </is>
       </c>
     </row>
@@ -7705,17 +7705,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1206.178</t>
+          <t>54530.408</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -7725,17 +7725,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>36.15</t>
+          <t>44.65</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7745,32 +7745,32 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>748</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>5044</t>
+          <t>32071</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -7780,37 +7780,37 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -7825,27 +7825,27 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>257388180.0</t>
+          <t>2061814549.0</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>承啟</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
@@ -7855,57 +7855,57 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>36.86</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>6.66%</t>
+          <t>26.70%</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>-1.54%</t>
+          <t>16.91%</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>111.61</t>
+          <t>153.13</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>3734</t>
+          <t>584592</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>消費性產品51.06%、AI伺服器及商品47.23%、服務收入1.49%、勞務0.21% (2024年)</t>
+          <t>晶圓95.49%、其他4.51% (2024年)</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>承啟-電腦及週邊設備業-上市</t>
+          <t>聯電-半導體業-上市</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>31.1</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 主機板、顯示卡、伺服器、其他電腦及週邊設備</t>
+          <t>** 半導體 - 晶圓製造</t>
         </is>
       </c>
     </row>
@@ -7932,17 +7932,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2414</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>130.609</t>
+          <t>1628.698</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -7952,17 +7952,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -7972,32 +7972,32 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>-1.90</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -8007,72 +8007,72 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>6865818.0</t>
+          <t>78347907.0</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>精技</t>
+          <t>燁輝</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
@@ -8082,57 +8082,57 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>39.13</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>13.84</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>6.77%</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>2.68%</t>
+          <t>-1.37%</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>41.38</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>6534</t>
+          <t>30956</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>商品銷售98.80%、勞務1.20% (2024年)</t>
+          <t>鋼捲及鋼管80.54%、其他9.42%、線材8.90%、工程1.14% (2024年)</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>精技-電子通路業-上市</t>
+          <t>燁輝-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>19.65</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 鋼鐵 - 冷熱軋鋼板捲</t>
         </is>
       </c>
     </row>
@@ -8159,17 +8159,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2360</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1619.158</t>
+          <t>2307.223</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8179,17 +8179,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>287.0</t>
+          <t>24.5</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8199,82 +8199,82 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1,170</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2173</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>-4.71</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>-9.22</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>-14.04</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -8284,22 +8284,22 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>2073145280.0</t>
+          <t>-25325026.0</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>致茂</t>
+          <t>億泰</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電器電纜</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
@@ -8309,57 +8309,57 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>14.25</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>25.74</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>59.73%</t>
+          <t>14.91%</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>25.82%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>166.26</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>136103</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>商品銷售94.51%、工程4.04%、其他1.45% (2024年)</t>
+          <t>電力電纜85.56%、通信電纜4.40%、光纖電纜4.03%、裸銅線2.38%、其他2.09%、橡膠電纜1.55% (2024年)</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>致茂-其他電子業-上市</t>
+          <t>億泰-電器電纜-上市</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>58.72</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
@@ -8373,1141 +8373,6 @@
         </is>
       </c>
       <c r="AS35" t="inlineStr">
-        <is>
-          <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 電腦及週邊設備 - 電源供應器** 平面顯示器 - 生產製程及檢測設備** 軟體服務 - 系統整合服務** 其他 - 其他電子產品及電子服務產業** LED照明產業 - 生產製程、檢測設備及原物料** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 能源元件 - 電池芯、電池模組** 智慧電網 - 高/低壓輸電設施、配電管理設施</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2347</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>-1.11</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4861.494</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>70.9</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>1856</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>-1.11</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>-0.37</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>-0.88</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>808729624.0</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>聯強</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>電子通路業</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>54.8</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>13.62</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>4.37%</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>2.06%</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>120426</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>商品銷售99.34%、勞務0.66% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN36" t="inlineStr">
-        <is>
-          <t>聯強-電子通路業-上市</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>電子通路業平</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
-          <t>44.28</t>
-        </is>
-      </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS36" t="inlineStr">
-        <is>
-          <t>** 半導體 - IC通路</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2303</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>54530.408</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>21.97</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>44.65</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>34164</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>2061814549.0</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>聯電</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>半導體業</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>13.08</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>26.70%</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>16.91%</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>151.92</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>583336</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>晶圓95.49%、其他4.51% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t>聯電-半導體業-上市</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>半導體業右下</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
-          <t>31.1</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS37" t="inlineStr">
-        <is>
-          <t>** 半導體 - 晶圓製造</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1628.698</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>10.88</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>15.8</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1459</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>-1.25</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>2025-04-23</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>78347907.0</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>燁輝</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>鋼鐵工業</t>
-        </is>
-      </c>
-      <c r="AE38" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG38" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>6.77%</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>-1.37%</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>41.3</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>31250</t>
-        </is>
-      </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>鋼捲及鋼管80.54%、其他9.42%、線材8.90%、工程1.14% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN38" t="inlineStr">
-        <is>
-          <t>燁輝-鋼鐵工業-上市</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>鋼鐵工業平</t>
-        </is>
-      </c>
-      <c r="AP38" t="inlineStr">
-        <is>
-          <t>19.65</t>
-        </is>
-      </c>
-      <c r="AQ38" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR38" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS38" t="inlineStr">
-        <is>
-          <t>** 鋼鐵 - 冷熱軋鋼板捲</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1734</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>102.897</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>31.25</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>530</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>-11.0</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>10156239.0</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>杏輝</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>19.29</t>
-        </is>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>40.69%</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>10.17%</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>38.49</t>
-        </is>
-      </c>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>5869</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>療效用藥65.66%、功能性食品30.89%、其他3.46% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN39" t="inlineStr">
-        <is>
-          <t>杏輝-生技醫療業-上市</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>生技醫療業平</t>
-        </is>
-      </c>
-      <c r="AP39" t="inlineStr">
-        <is>
-          <t>18.01</t>
-        </is>
-      </c>
-      <c r="AQ39" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR39" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS39" t="inlineStr">
-        <is>
-          <t>** 製藥 - 中、西藥製劑</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1616</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2307.223</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>24.5</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>3354</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>55.0</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>55.0</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>-25325026.0</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>億泰</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>電器電纜</t>
-        </is>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF40" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>12.48</t>
-        </is>
-      </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>14.91%</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>0.85%</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>22.02</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
-        <is>
-          <t>4941</t>
-        </is>
-      </c>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>電力電纜85.56%、通信電纜4.40%、光纖電纜4.03%、裸銅線2.38%、其他2.09%、橡膠電纜1.55% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN40" t="inlineStr">
-        <is>
-          <t>億泰-電器電纜-上市</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>電器電纜右上</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
-        <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS40" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>

--- a/Result/check3/2025-04-25.xlsx
+++ b/Result/check3/2025-04-25.xlsx
@@ -798,7 +798,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-1444914.0</t>
+          <t>289606111.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>105830579.0</t>
+          <t>128795724.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1220984757.0</t>
+          <t>2823887276.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>155530058.0</t>
+          <t>273356732.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>930799.0</t>
+          <t>969148.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>45427.0</t>
+          <t>58432.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10754.0</t>
+          <t>21262.0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>34734.0</t>
+          <t>62140.0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>358147281.0</t>
+          <t>271125261.0</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>-24556049.0</t>
+          <t>214226608.0</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>750994126.0</t>
+          <t>2546203677.0</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>319322.0</t>
+          <t>343878.0</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>408998123.0</t>
+          <t>759629893.0</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>19207711.0</t>
+          <t>11385091.0</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>1104882.0</t>
+          <t>1115335.0</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>93550605.0</t>
+          <t>121258120.0</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>-13149.0</t>
+          <t>5800.0</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>385298475.0</t>
+          <t>128184645.0</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>-58615.0</t>
+          <t>233482.0</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>1085745.0</t>
+          <t>991493.0</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>459077793.0</t>
+          <t>603610128.0</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>7447681574.0</t>
+          <t>8421198227.0</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>367487.0</t>
+          <t>521259.0</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>393223.0</t>
+          <t>-429964.0</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>202440669.0</t>
+          <t>256319126.0</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>387137461.0</t>
+          <t>390830676.0</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>1364915072.0</t>
+          <t>3443178681.0</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>257388180.0</t>
+          <t>491120882.0</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>6865818.0</t>
+          <t>3400506.0</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2073145280.0</t>
+          <t>2682852783.0</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>808729624.0</t>
+          <t>103370849.0</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>2061814549.0</t>
+          <t>5461010761.0</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>78347907.0</t>
+          <t>36262755.0</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>-25325026.0</t>
+          <t>86545602.0</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">

--- a/Result/check3/2025-04-25.xlsx
+++ b/Result/check3/2025-04-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS35"/>
+  <dimension ref="A1:AS34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9937</t>
+          <t>9907</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.131</t>
+          <t>4178.838</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>61.7</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,72 +708,72 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3,500</t>
+          <t>63</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>3505</t>
+          <t>10892</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-2.95</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>154.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -783,32 +783,32 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>289606111.0</t>
+          <t>128795724.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>全國</t>
+          <t>統一實</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>油電燃氣業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -818,57 +818,57 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>18.76</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>26.71</t>
+          <t>15.62</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>11.94%</t>
+          <t>16.02%</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>3.15%</t>
+          <t>8.32%</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>28.52</t>
+          <t>23.87</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>19315</t>
+          <t>32057</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>無鉛汽油50.03%、超級柴油30.52%、無鉛汽油11.97%、無鉛汽油5.88%、勞務1.16%、其他0.44% (2024年)</t>
+          <t>馬口鐵包材產品53.33%、塑膠包材(含充填)產品46.67% (2024年)</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>全國-油電燃氣業-上市</t>
+          <t>統一實-其他-上市</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>18.97</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>** 油電燃氣 - 加油站</t>
+          <t>** 鋼鐵 - 冷熱軋鋼板捲、金屬製品** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -895,17 +895,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9907</t>
+          <t>8222</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4178.838</t>
+          <t>62600.977</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>47.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -935,57 +935,57 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11022</t>
+          <t>9406</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1020,22 +1020,22 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>128795724.0</t>
+          <t>2823887276.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>統一實</t>
+          <t>寶一</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1045,57 +1045,57 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>48.01</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>16.02%</t>
+          <t>22.33%</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>8.32%</t>
+          <t>10.70%</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>101.95</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>32846</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>馬口鐵包材產品53.33%、塑膠包材(含充填)產品46.67% (2024年)</t>
+          <t>航太零組件100.00% (2024年)</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>統一實-其他-上市</t>
+          <t>寶一-電機機械-上市</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>** 鋼鐵 - 冷熱軋鋼板捲、金屬製品** 其他 - 其他</t>
+          <t>** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
@@ -1122,17 +1122,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8222</t>
+          <t>6834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62600.977</t>
+          <t>3471.685</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>47.56</t>
+          <t>31.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>34.15</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1162,107 +1162,107 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>14345</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>139.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2823887276.0</t>
+          <t>273356732.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>寶一</t>
+          <t>天二科技</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1272,57 +1272,57 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>48.01</t>
+          <t>38.66</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>22.33%</t>
+          <t>21.20%</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>10.70%</t>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>100.05</t>
+          <t>58.66</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>4478</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>航太零組件100.00% (2024年)</t>
+          <t>厚膜電阻40.49%、金屬板電阻31.67%、薄膜電阻27.33%、其他0.50% (2024年)</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>寶一-電機機械-上市</t>
+          <t>天二科技-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>16.77</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>** 電機機械 - 金屬加工處理</t>
+          <t>** 被動元件 - 電阻器</t>
         </is>
       </c>
     </row>
@@ -1349,17 +1349,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6834</t>
+          <t>6752</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3471.685</t>
+          <t>2901.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>31.54</t>
+          <t>42.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>34.15</t>
+          <t>162.5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1389,167 +1389,167 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>582</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>273356732.0</t>
+          <t>969148.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>天二科技</t>
+          <t>叡揚</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>26.34</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>21.20%</t>
+          <t>48.29%</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>6.48%</t>
+          <t>12.60%</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>57.79</t>
+          <t>27.26</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3119</t>
+          <t>6280</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>厚膜電阻40.49%、金屬板電阻31.67%、薄膜電阻27.33%、其他0.50% (2024年)</t>
+          <t>技術服務94.97%、商品銷售5.03% (2024年)</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>天二科技-電子零組件業-上市</t>
+          <t>叡揚-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>16.77</t>
+          <t>33.11</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>** 被動元件 - 電阻器</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發** 人工智慧 - 系統整合、顧問諮詢、領域解決方案、智慧設備、機器學習、電腦視覺、自然語言處理、移動控制、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、電力設備、冷卻設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安營運管理服務、資安顧問服務</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6752</t>
+          <t>6596</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2901.0</t>
+          <t>178.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>42.49</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>162.5</t>
+          <t>90.9</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1616,107 +1616,107 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>23.61</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2354</t>
+          <t>749</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-13.77</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>969148.0</t>
+          <t>58432.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>叡揚</t>
+          <t>寬宏藝術</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1726,57 +1726,57 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>14.21</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>29.56</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>56.16%</t>
+          <t>50.52%</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>20.33%</t>
+          <t>37.23%</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>169.08</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>6421</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>技術服務94.97%、商品銷售5.03% (2024年)</t>
+          <t>展演81.40%、工程14.79%、商品銷售2.20%、其他勞務1.61% (2024年)</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>叡揚-資訊服務業-上櫃</t>
+          <t>寬宏藝術-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>35.36</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發** 人工智慧 - 系統整合、顧問諮詢、領域解決方案、智慧設備、機器學習、電腦視覺、自然語言處理、移動控制、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、電力設備、冷卻設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安營運管理服務、資安顧問服務</t>
+          <t>** 文化創意業 - 流行音樂及文化內容產業</t>
         </is>
       </c>
     </row>
@@ -1803,17 +1803,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6596</t>
+          <t>6516</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>178.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>90.9</t>
+          <t>74.1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1843,107 +1843,107 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>23.93</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>887</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>58432.0</t>
+          <t>21262.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>寬宏藝術</t>
+          <t>勤崴國際</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1953,57 +1953,57 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>59.61</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>50.52%</t>
+          <t>51.67%</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>37.23%</t>
+          <t>14.59%</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>168.67</t>
+          <t>27.26</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>4541</t>
+          <t>5104</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>展演81.40%、工程14.79%、商品銷售2.20%、其他勞務1.61% (2024年)</t>
+          <t>導航軟體與車載系統48.58%、其他-非整合類專案14.69%、電子地圖14.60%、自駕營運11.14%、系統整合服務7.09%、其他3.89% (2024年)</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>寬宏藝術-文化創意業-上櫃</t>
+          <t>勤崴國際-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>28.82</t>
+          <t>19.75</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 流行音樂及文化內容產業</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 人工智慧 - 領域解決方案** 大數據 - 領域解決方案</t>
         </is>
       </c>
     </row>
@@ -2030,17 +2030,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6516</t>
+          <t>6499</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>448.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,187 +2050,187 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>37.42</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15143</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>3.43</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>74.1</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>62140.0</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>益安</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>16.55</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>1148</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>-0.83</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2025-04-23</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>2025-05-14</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>21262.0</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>勤崴國際</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>58.42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>51.67%</t>
+          <t>18.65%</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>14.59%</t>
+          <t>-186.93%</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>28.57</t>
+          <t>105.26</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>5003</t>
+          <t>7370</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>導航軟體與車載系統48.58%、其他-非整合類專案14.69%、電子地圖14.60%、自駕營運11.14%、系統整合服務7.09%、其他3.89% (2024年)</t>
+          <t>受託研究開發60.81%、醫療器材模具及製品39.19% (2024年)</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>勤崴國際-資訊服務業-上櫃</t>
+          <t>益安-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>19.75</t>
+          <t>14.58</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 人工智慧 - 領域解決方案** 大數據 - 領域解決方案</t>
+          <t>** 醫療器材 - 醫療耗材</t>
         </is>
       </c>
     </row>
@@ -2257,17 +2257,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6499</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>448.0</t>
+          <t>266.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,17 +2277,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>27.25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2297,107 +2297,107 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>33.6</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>10319</t>
+          <t>795</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>14.79</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>-1.64</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>62140.0</t>
+          <t>20664.0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>益安</t>
+          <t>中探針</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2422,42 +2422,42 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>18.65%</t>
+          <t>15.75%</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>-186.93%</t>
+          <t>-11.78%</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>105.83</t>
+          <t>40.05</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>受託研究開發60.81%、醫療器材模具及製品39.19% (2024年)</t>
+          <t>探針78.29%、其他17.04%、金屬成形加工4.66% (2024年)</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>益安-生技醫療業-上櫃</t>
+          <t>中探針-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>14.58</t>
+          <t>26.27</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>** 醫療器材 - 醫療耗材</t>
+          <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
       </c>
     </row>
@@ -2524,17 +2524,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>33</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>1388</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-2.45</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>15.01</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>167.12</t>
+          <t>170.06</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>32915</t>
+          <t>33720</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -2751,32 +2751,32 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>-6.99</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2861,37 +2861,37 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>30.87</t>
+          <t>29.9</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>25.57%</t>
+          <t>28.21%</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>10.74%</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>32.7</t>
+          <t>32.45</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>4704</t>
+          <t>4556</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>18.63</t>
+          <t>18.57</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -2978,17 +2978,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2270</t>
+          <t>4511</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2998,12 +2998,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-2.88</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>13.69</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -3113,12 +3113,12 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>167.12</t>
+          <t>170.06</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>56623</t>
+          <t>58721</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -3225,12 +3225,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-2.37</t>
+          <t>-5.69</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>589.0</t>
+          <t>580.0</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -3340,12 +3340,12 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>78.09</t>
+          <t>79.45</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>1524</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
@@ -3437,12 +3437,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2159</t>
+          <t>2151</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3452,12 +3452,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-2.07</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>13.08</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5706</t>
+          <t>5536</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>109.98</t>
+          <t>734.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3639,17 +3639,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>24.15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>56.2</t>
+          <t>385.0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3659,82 +3659,82 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>-2.26</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>557</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-1.56</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-2.30</t>
+          <t>-8.71</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3744,82 +3744,82 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11385091.0</t>
+          <t>1115335.0</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>鳳凰</t>
+          <t>聖暉*</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>18.76</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>15.13%</t>
+          <t>17.96%</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>6.52%</t>
+          <t>11.96%</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>127.88</t>
+          <t>33.38</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>5035</t>
+          <t>46716</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>團體業務94.20%、手續費2.79%、佣金2.03%、飯店客房0.38%、專櫃租金0.31%、陸運0.28% (2024年)</t>
+          <t>無塵室機電整合工程56.85%、水氣化供應整合工程33.63%、民生產業機電整合工程6.10%、高科技設備材料銷售及服務1.77%、生技醫療工程1.66% (2024年)</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>鳳凰-觀光事業-上市</t>
+          <t>聖暉*-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>23.5</t>
+          <t>82.55</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>** 休閒娛樂 - 旅遊服務業</t>
+          <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備** 電機機械 - 冷凍空調設備及零件、機電系統工程** 建材營造 - 機電工程、工程設計、工程承攬** 其他 - 其他電子產品及電子服務產業** 雲端運算 - 電力設備、冷卻設備** LED照明產業 - 生產製程、檢測設備及原物料** 太陽能產業 - 太陽能發電設備/系統及系統工程</t>
         </is>
       </c>
     </row>
@@ -3846,207 +3846,207 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5536</t>
+          <t>5531</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6056.675</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-1.83</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1801</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-3.21</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>358.64</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>121258120.0</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>鄉林</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>734.0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>24.15</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>385.0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-2.94</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>-3.61</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>-8.71</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>2025-04-23</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>2025-05-14</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>1115335.0</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>聖暉*</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>16.38</t>
-        </is>
-      </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>17.96%</t>
+          <t>-1.18%</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>11.96%</t>
+          <t>-196.63%</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>31.81</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>46406</t>
+          <t>10656</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>無塵室機電整合工程56.85%、水氣化供應整合工程33.63%、民生產業機電整合工程6.10%、高科技設備材料銷售及服務1.77%、生技醫療工程1.66% (2024年)</t>
+          <t>房地銷售85.05%、酒店13.66%、租賃1.05%、其他0.23% (2024年)</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>聖暉*-其他電子業-上櫃</t>
+          <t>鄉林-建材營造-上市</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>82.55</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備** 電機機械 - 冷凍空調設備及零件、機電系統工程** 建材營造 - 機電工程、工程設計、工程承攬** 其他 - 其他電子產品及電子服務產業** 雲端運算 - 電力設備、冷卻設備** LED照明產業 - 生產製程、檢測設備及原物料** 太陽能產業 - 太陽能發電設備/系統及系統工程</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4073,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5531</t>
+          <t>5490</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>-1.56</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6056.675</t>
+          <t>380.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4093,17 +4093,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>44.71</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>21.9</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4113,57 +4113,57 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>24.61</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1590</t>
+          <t>3553</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>358.64</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -4173,12 +4173,12 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -4193,87 +4193,87 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>121258120.0</t>
+          <t>5800.0</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>鄉林</t>
+          <t>同亨</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29.64</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>-1.18%</t>
+          <t>46.02%</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>-196.63%</t>
+          <t>18.72%</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>51.73</t>
+          <t>22.41</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>10949</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>房地銷售85.05%、酒店13.66%、租賃1.05%、其他0.23% (2024年)</t>
+          <t>電子金融交易終端機58.68%、其他18.92%、交易資料安全保護設備14.86%、讀寫卡機7.54% (2024年)</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>鄉林-建材營造-上市</t>
+          <t>同亨-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
@@ -4283,12 +4283,12 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 電腦及週邊設備 - 工業電腦** 觸控面板 - 工業用設備</t>
         </is>
       </c>
     </row>
@@ -4300,17 +4300,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5490</t>
+          <t>4961</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-1.56</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>380.0</t>
+          <t>640.649</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4320,17 +4320,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>21.9</t>
+          <t>205.5</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4340,72 +4340,72 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4194</t>
+          <t>798</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-3.59</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-5.43</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -4415,92 +4415,92 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>5800.0</t>
+          <t>128184645.0</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>同亨</t>
+          <t>天鈺</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>29.54</t>
+          <t>13.99</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>46.02%</t>
+          <t>29.31%</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>18.72%</t>
+          <t>10.47%</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>34.06</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>27403</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>電子金融交易終端機58.68%、其他18.92%、交易資料安全保護設備14.86%、讀寫卡機7.54% (2024年)</t>
+          <t>顯示器驅動IC66.60%、其他22.07%、電源管理積體電路(IC)11.21%、勞務0.11% (2024年)</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>同亨-電腦及週邊設備業-上櫃</t>
+          <t>天鈺-半導體業-上市</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>14.06</t>
+          <t>139.36</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
@@ -4510,12 +4510,12 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦** 觸控面板 - 工業用設備</t>
+          <t>** 半導體 - LED驅動IC、電源管理IC、平面顯示器驅動IC</t>
         </is>
       </c>
     </row>
@@ -4527,122 +4527,122 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4961</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3930.0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>47.75</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-8.65</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>9297</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>640.649</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>205.5</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-2.71</t>
+          <t>-6.01</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>-3.59</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-5.43</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4652,82 +4652,82 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>77</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>128184645.0</t>
+          <t>991493.0</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>天鈺</t>
+          <t>鑫聯大投控</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>13.71</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>29.31%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>10.47%</t>
+          <t>1.78%</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>153.13</t>
+          <t>22.41</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>26858</t>
+          <t>5519</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>顯示器驅動IC66.60%、其他22.07%、電源管理積體電路(IC)11.21%、勞務0.11% (2024年)</t>
+          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>天鈺-半導體業-上市</t>
+          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>139.36</t>
+          <t>23.26</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>** 半導體 - LED驅動IC、電源管理IC、平面顯示器驅動IC</t>
+          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
         </is>
       </c>
     </row>
@@ -4754,17 +4754,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4946</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>421.0</t>
+          <t>6475.682</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4774,17 +4774,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>52.76</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>66.5</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4794,72 +4794,72 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>27.09</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>14.88</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>15.94</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -4869,92 +4869,92 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>233482.0</t>
+          <t>603610128.0</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>辣椒</t>
+          <t>大聯大</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>137.94</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.19</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>20.94%</t>
+          <t>3.60%</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>-95.59%</t>
+          <t>1.67%</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>168.67</t>
+          <t>16.31</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>117198</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>遊戲營運66.66%、商品銷售14.24%、餐飲13.84%、其他5.26% (2024年)</t>
+          <t>核心元件39.08%、記憶體元件26.98%、光學元件9.33%、離散及邏輯元件9.05%、類比及混合訊號元件8.32%、被動及電磁及連接器元件5.17%、其他2.07% (2024年)</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>辣椒-文化創意業-上櫃</t>
+          <t>大聯大-電子通路業-上市</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>49.56</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 營運發行</t>
+          <t>** 半導體 - IC通路</t>
         </is>
       </c>
     </row>
@@ -4981,17 +4981,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>3665</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3930.0</t>
+          <t>4129.907</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5001,17 +5001,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>28.29</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>47.75</t>
+          <t>540.0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5021,167 +5021,167 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-6.35</t>
+          <t>16.02</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>175</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>6581</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-4.29</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>-9.97</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>-21.51</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>991493.0</t>
+          <t>8421198227.0</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>鑫聯大投控</t>
+          <t>貿聯-KY</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>76.03</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>18.48</t>
+          <t>22.52</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>28.78%</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>13.80%</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>34.06</t>
+          <t>170.06</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>5638</t>
+          <t>122223</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
+          <t>電腦傳輸47.13%、工業應用36.36%、家用電器16.52% (2024年)</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
+          <t>貿聯-KY-其他電子業-上市</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>191.02</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
+          <t>** 休閒娛樂 - 休閒車業** 電腦及週邊設備 - 連接線、其他電腦及週邊設備之零組件** 通信網路 - 線材、其他零組件** 連接器 - 塑膠材料、連接器設計、組裝及製造** 印刷電路板 - 基板組裝加工及相關製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 太陽能產業 - 材料** 能源元件 - 原材料** 醫療器材 - 塑化材料、金屬零件</t>
         </is>
       </c>
     </row>
@@ -5208,17 +5208,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3702</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6475.682</t>
+          <t>790.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>20.93</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>66.5</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5248,57 +5248,57 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>4875</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -5308,17 +5308,17 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -5328,87 +5328,87 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>603610128.0</t>
+          <t>27329.0</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>大聯大</t>
+          <t>安可</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>137.94</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>3.60%</t>
+          <t>15.57%</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>1.67%</t>
+          <t>-4.57%</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>61.64</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>116191</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>核心元件39.08%、記憶體元件26.98%、光學元件9.33%、離散及邏輯元件9.05%、類比及混合訊號元件8.32%、被動及電磁及連接器元件5.17%、其他2.07% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>大聯大-電子通路業-上市</t>
+          <t>安可-光電業-上櫃</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>49.56</t>
+          <t>33.01</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>** 半導體 - IC通路</t>
+          <t>** 平面顯示器 - ITO導電基板** 觸控面板 - ITO導電玻璃** LED照明產業 - 藍寶石晶圓/晶片</t>
         </is>
       </c>
     </row>
@@ -5435,17 +5435,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3665</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4129.907</t>
+          <t>1350.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5455,17 +5455,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>28.29</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>540.0</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5475,167 +5475,167 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>11.76</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>66</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2756</t>
+          <t>14330</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>-2.45</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-9.97</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-21.51</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>8421198227.0</t>
+          <t>521259.0</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>貿聯-KY</t>
+          <t>宇峻</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>76.03</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>26.39</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>28.78%</t>
+          <t>98.53%</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>13.80%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>167.12</t>
+          <t>169.08</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>116331</t>
+          <t>6825</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>電腦傳輸47.13%、工業應用36.36%、家用電器16.52% (2024年)</t>
+          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>貿聯-KY-其他電子業-上市</t>
+          <t>宇峻-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>191.02</t>
+          <t>30.66</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>** 休閒娛樂 - 休閒車業** 電腦及週邊設備 - 連接線、其他電腦及週邊設備之零組件** 通信網路 - 線材、其他零組件** 連接器 - 塑膠材料、連接器設計、組裝及製造** 印刷電路板 - 基板組裝加工及相關製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 太陽能產業 - 材料** 能源元件 - 原材料** 醫療器材 - 塑化材料、金屬零件</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
         </is>
       </c>
     </row>
@@ -5662,17 +5662,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-2.25</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1350.0</t>
+          <t>17144.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5682,17 +5682,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>28.74</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>72.3</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5702,72 +5702,72 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>13241</t>
+          <t>9625</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -5777,32 +5777,32 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>521259.0</t>
+          <t>-429964.0</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>宇峻</t>
+          <t>欣銓</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
@@ -5812,57 +5812,57 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>23.19</t>
+          <t>17.95</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>98.53%</t>
+          <t>35.12%</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>168.67</t>
+          <t>57.37</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>6825</t>
+          <t>38723</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
+          <t>晶圓測試69.93%、成品測試29.55%、其他0.52% (2024年)</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>宇峻-文化創意業-上櫃</t>
+          <t>欣銓-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>40.1</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
+          <t>** 半導體 - IC封裝測試</t>
         </is>
       </c>
     </row>
@@ -5889,17 +5889,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-2.25</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17144.0</t>
+          <t>548.926</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5909,17 +5909,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>28.74</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>72.3</t>
+          <t>129.0</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5929,167 +5929,167 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>22096</t>
+          <t>892</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-5.98</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>-429964.0</t>
+          <t>256319126.0</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>欣銓</t>
+          <t>雄獅</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>觀光事業</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>76.61</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>17.86</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>35.12%</t>
+          <t>17.81%</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>53.61</t>
+          <t>31.44</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>38527</t>
+          <t>13572</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>晶圓測試69.93%、成品測試29.55%、其他0.52% (2024年)</t>
+          <t>團費94.94%、其他3.55%、FIT1.51% (2024年)</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>欣銓-半導體業-上櫃</t>
+          <t>雄獅-觀光事業-上市</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>** 半導體 - IC封裝測試</t>
+          <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
       </c>
     </row>
@@ -6116,17 +6116,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2731</t>
+          <t>2480</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>548.926</t>
+          <t>1262.194</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6136,17 +6136,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>23.72</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>129.0</t>
+          <t>145.5</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6156,72 +6156,72 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11.34</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>620</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-3.55</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -6236,27 +6236,27 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>256319126.0</t>
+          <t>390830676.0</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>雄獅</t>
+          <t>敦陽科</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
@@ -6266,57 +6266,57 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>76.61</t>
+          <t>19.44</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>13.36</t>
+          <t>20.87</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>17.81%</t>
+          <t>25.07%</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>6.50%</t>
+          <t>12.72%</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>127.88</t>
+          <t>27.77</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>13572</t>
+          <t>17337</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>團費94.94%、其他3.55%、FIT1.51% (2024年)</t>
+          <t>電腦主機及週邊設備68.13%、勞務31.76%、其他0.11% (2024年)</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>雄獅-觀光事業-上市</t>
+          <t>敦陽科-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>27.15</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>** 休閒娛樂 - 旅遊服務業</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 區塊鏈 - 交易平台、商業應用** 金融科技 - 數據分析、資料聚合、數位身分** 人工智慧 - 系統整合、顧問諮詢、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安顧問服務** 大數據 - 系統整合、顧問諮詢、資料庫、分析工具、應用軟體、運算元件與設備、雲端平台、儲存處理</t>
         </is>
       </c>
     </row>
@@ -6343,17 +6343,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2474</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1262.194</t>
+          <t>3050.071</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6363,17 +6363,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>23.72</t>
+          <t>15.37</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>145.5</t>
+          <t>216.0</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6383,107 +6383,107 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>4518</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-3.55</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>390830676.0</t>
+          <t>3443178681.0</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>敦陽科</t>
+          <t>可成</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
@@ -6493,57 +6493,57 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>21.06</t>
+          <t>12.57</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>25.07%</t>
+          <t>35.02%</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>12.72%</t>
+          <t>19.85%</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>27.49</t>
+          <t>170.06</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>17496</t>
+          <t>152061</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>電腦主機及週邊設備68.13%、勞務31.76%、其他0.11% (2024年)</t>
+          <t>機殼及內構件99.82%、租賃0.16%、勞務0.02% (2024年)</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>敦陽科-資訊服務業-上市</t>
+          <t>可成-其他電子業-上市</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>257.57</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 區塊鏈 - 交易平台、商業應用** 金融科技 - 數據分析、資料聚合、數位身分** 人工智慧 - 系統整合、顧問諮詢、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安顧問服務** 大數據 - 系統整合、顧問諮詢、資料庫、分析工具、應用軟體、運算元件與設備、雲端平台、儲存處理</t>
+          <t>** 電腦及週邊設備 - 機殼</t>
         </is>
       </c>
     </row>
@@ -6570,17 +6570,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2474</t>
+          <t>2425</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3050.071</t>
+          <t>1206.178</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6590,17 +6590,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>15.37</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>216.0</t>
+          <t>36.15</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6610,32 +6610,32 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>3687</t>
+          <t>5972</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -6645,37 +6645,37 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -6685,32 +6685,32 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>3443178681.0</t>
+          <t>491120882.0</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>可成</t>
+          <t>承啟</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
@@ -6720,57 +6720,57 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>37.67</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>35.02%</t>
+          <t>6.66%</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>19.85%</t>
+          <t>-1.54%</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>167.12</t>
+          <t>49.16</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>150360</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>機殼及內構件99.82%、租賃0.16%、勞務0.02% (2024年)</t>
+          <t>消費性產品51.06%、AI伺服器及商品47.23%、服務收入1.49%、勞務0.21% (2024年)</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>可成-其他電子業-上市</t>
+          <t>承啟-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>257.57</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 機殼</t>
+          <t>** 電腦及週邊設備 - 主機板、顯示卡、伺服器、其他電腦及週邊設備</t>
         </is>
       </c>
     </row>
@@ -6797,17 +6797,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>2414</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1206.178</t>
+          <t>130.609</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -6817,17 +6817,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>36.15</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6837,32 +6837,32 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>17419</t>
+          <t>673</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-4.86</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -6872,42 +6872,42 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -6917,27 +6917,27 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>491120882.0</t>
+          <t>3400506.0</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>承啟</t>
+          <t>精技</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
@@ -6947,57 +6947,57 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>39.13</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>37.62</t>
+          <t>14.38</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>6.66%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>-1.54%</t>
+          <t>2.68%</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>57.65</t>
+          <t>16.31</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>3812</t>
+          <t>6793</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>消費性產品51.06%、AI伺服器及商品47.23%、服務收入1.49%、勞務0.21% (2024年)</t>
+          <t>商品銷售98.80%、勞務1.20% (2024年)</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>承啟-電腦及週邊設備業-上市</t>
+          <t>精技-電子通路業-上市</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 主機板、顯示卡、伺服器、其他電腦及週邊設備</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -7024,17 +7024,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2414</t>
+          <t>2360</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>130.609</t>
+          <t>1619.158</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7044,17 +7044,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>287.0</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -7064,72 +7064,72 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>79</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>1763</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>-4.50</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-9.22</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-14.04</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -7144,27 +7144,27 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>3400506.0</t>
+          <t>2682852783.0</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>精技</t>
+          <t>致茂</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
@@ -7174,57 +7174,57 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>39.13</t>
+          <t>16.2</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>14.04</t>
+          <t>21.48</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>60.43%</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>2.68%</t>
+          <t>31.52%</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>170.06</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>6631</t>
+          <t>138655</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>商品銷售98.80%、勞務1.20% (2024年)</t>
+          <t>商品銷售94.51%、工程4.04%、其他1.45% (2024年)</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>精技-電子通路業-上市</t>
+          <t>致茂-其他電子業-上市</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>55.59</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 電腦及週邊設備 - 電源供應器** 平面顯示器 - 生產製程及檢測設備** 軟體服務 - 系統整合服務** 其他 - 其他電子產品及電子服務產業** LED照明產業 - 生產製程、檢測設備及原物料** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 能源元件 - 電池芯、電池模組** 智慧電網 - 高/低壓輸電設施、配電管理設施</t>
         </is>
       </c>
     </row>
@@ -7251,17 +7251,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2360</t>
+          <t>2347</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1619.158</t>
+          <t>4861.494</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>287.0</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7291,37 +7291,37 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>11.28</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>770</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>4184</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -7331,17 +7331,17 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>-9.22</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-14.04</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -7351,12 +7351,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -7366,32 +7366,32 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2682852783.0</t>
+          <t>103370849.0</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>致茂</t>
+          <t>聯強</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
@@ -7401,57 +7401,57 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>14.25</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>21.31</t>
+          <t>13.85</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>59.73%</t>
+          <t>4.37%</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>25.82%</t>
+          <t>2.06%</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>167.12</t>
+          <t>16.31</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>137592</t>
+          <t>122427</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>商品銷售94.51%、工程4.04%、其他1.45% (2024年)</t>
+          <t>商品銷售99.34%、勞務0.66% (2024年)</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>致茂-其他電子業-上市</t>
+          <t>聯強-電子通路業-上市</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>58.72</t>
+          <t>44.28</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 電腦及週邊設備 - 電源供應器** 平面顯示器 - 生產製程及檢測設備** 軟體服務 - 系統整合服務** 其他 - 其他電子產品及電子服務產業** LED照明產業 - 生產製程、檢測設備及原物料** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 能源元件 - 電池芯、電池模組** 智慧電網 - 高/低壓輸電設施、配電管理設施</t>
+          <t>** 半導體 - IC通路</t>
         </is>
       </c>
     </row>
@@ -7478,17 +7478,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4861.494</t>
+          <t>54530.408</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>70.9</t>
+          <t>44.65</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -7518,37 +7518,37 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>237</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>3639</t>
+          <t>27592</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -7558,67 +7558,67 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>103370849.0</t>
+          <t>5461010761.0</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>聯強</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
@@ -7628,57 +7628,57 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>13.58</t>
+          <t>13.24</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>4.37%</t>
+          <t>26.70%</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>2.06%</t>
+          <t>16.91%</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>120092</t>
+          <t>590243</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>商品銷售99.34%、勞務0.66% (2024年)</t>
+          <t>晶圓95.49%、其他4.51% (2024年)</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>聯強-電子通路業-上市</t>
+          <t>聯電-半導體業-上市</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>44.28</t>
+          <t>31.1</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>** 半導體 - IC通路</t>
+          <t>** 半導體 - 晶圓製造</t>
         </is>
       </c>
     </row>
@@ -7705,17 +7705,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>54530.408</t>
+          <t>337.302</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -7725,17 +7725,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>21.97</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>44.65</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7745,107 +7745,107 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>32071</t>
+          <t>5306</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>5461010761.0</t>
+          <t>10515891.0</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>泰豐</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
@@ -7855,57 +7855,57 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>26.70%</t>
+          <t>4.09%</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>16.91%</t>
+          <t>-73.79%</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>153.13</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>584592</t>
+          <t>10224</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>晶圓95.49%、其他4.51% (2024年)</t>
+          <t>輪胎96.38%、租賃3.62% (2024年)</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>聯電-半導體業-上市</t>
+          <t>泰豐-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>14.67</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>** 半導體 - 晶圓製造</t>
+          <t>** 石化及塑橡膠 - 橡膠製品** 其他 - 其他** 汽車 - 輪胎</t>
         </is>
       </c>
     </row>
@@ -7977,27 +7977,27 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>-1.90</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -8087,7 +8087,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
@@ -8097,17 +8097,17 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>9.63%</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>-1.37%</t>
+          <t>1.94%</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>41.38</t>
+          <t>40.51</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>19.65</t>
+          <t>19.58</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
@@ -8148,233 +8148,6 @@
       <c r="AS34" t="inlineStr">
         <is>
           <t>** 鋼鐵 - 冷熱軋鋼板捲</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1616</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2307.223</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>24.5</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>-0.41</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>4172</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>-4.71</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>55.0</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>55.0</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>86545602.0</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>億泰</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>電器電纜</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>14.91%</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>0.85%</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>21.87</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>4737</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>電力電纜85.56%、通信電纜4.40%、光纖電纜4.03%、裸銅線2.38%、其他2.09%、橡膠電纜1.55% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN35" t="inlineStr">
-        <is>
-          <t>億泰-電器電纜-上市</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>電器電纜右上</t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS35" t="inlineStr">
-        <is>
-          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
